--- a/biology/Botanique/Lysimachia/Lysimachia.xlsx
+++ b/biology/Botanique/Lysimachia/Lysimachia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lysimachia (les lysimaques) est un genre de plantes à fleurs de la famille des primulacées selon l'APG III, l'APG IV ou la classification classique de Cronquist (1981)[1]. Ce genre était auparavant considéré comme appartenant à la famille des myrsinacées, d'après la classification phylogénétique APG (1998)[2] et la classification phylogénétique APG II (2003)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lysimachia (les lysimaques) est un genre de plantes à fleurs de la famille des primulacées selon l'APG III, l'APG IV ou la classification classique de Cronquist (1981). Ce genre était auparavant considéré comme appartenant à la famille des myrsinacées, d'après la classification phylogénétique APG (1998) et la classification phylogénétique APG II (2003).
 Ce sont des plantes herbacées, à fleurs généralement jaunes, au port rampant ou érigé.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lusimachion était l'ancien nom grec, de lysis (dissoudre, terminer) et mache (différent)[Information douteuse] ; allusion aux qualités supposées calmantes de certaines espèces, ou, selon certains auteurs, dédié à Lysimaque, médecin de l'antiquité, fils d'un roi de Sicile[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lusimachion était l'ancien nom grec, de lysis (dissoudre, terminer) et mache (différent)[Information douteuse] ; allusion aux qualités supposées calmantes de certaines espèces, ou, selon certains auteurs, dédié à Lysimaque, médecin de l'antiquité, fils d'un roi de Sicile.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lysimachia arvensis - (Syn. Anagallis arvensis L.) - Mouron rouge
 Lysimachia ciliata L. - Lysimaque ciliée
